--- a/system_storage/history/programme/BCS-September-2025 S1.xlsx
+++ b/system_storage/history/programme/BCS-September-2025 S1.xlsx
@@ -238,7 +238,7 @@
     <t>Timetable Fitness Score:</t>
   </si>
   <si>
-    <t>99.47%</t>
+    <t>99.71%</t>
   </si>
 </sst>
 </file>
